--- a/Ethiopia Workspace/Code and Control Files/Subnational parameters/Gambella 2021_AHLE scenario parameters CATTLE scenarios only.xlsx
+++ b/Ethiopia Workspace/Code and Control Files/Subnational parameters/Gambella 2021_AHLE scenario parameters CATTLE scenarios only.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\First Analytics\Clients\University of Liverpool\GBADs Github\GBADsLiverpool\Ethiopia Workspace\Code and Control Files\Subnational parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12F5B202-6738-4782-A6E2-1282CC10DCEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0773170D-5D27-4F27-ACDA-45F495202FCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="14292" windowWidth="23256" windowHeight="12720" xr2:uid="{7B09E95E-6D5F-461A-A5DC-5B71F2D22658}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -80,6 +80,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -93,7 +95,7 @@
     <author>WT</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{2F263E43-F915-4137-85CF-5A81894CE5E8}">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -118,7 +120,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{567AD433-C602-4793-AF56-C8F6FFFDC5B4}">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -152,7 +154,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B21" authorId="1" shapeId="0" xr:uid="{F629E569-BEC6-44AB-8A17-99FA561689CD}">
+    <comment ref="B21" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -176,7 +178,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B27" authorId="1" shapeId="0" xr:uid="{DE325A39-7F03-4001-A61E-BC0056AFEC89}">
+    <comment ref="B27" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -200,7 +202,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B50" authorId="1" shapeId="0" xr:uid="{B8AC189D-A071-42A5-B581-B1F819D42AD9}">
+    <comment ref="B50" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -224,7 +226,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A55" authorId="1" shapeId="0" xr:uid="{8F661D32-F8E3-4020-9B05-FF924A9DEA48}">
+    <comment ref="A55" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -248,7 +250,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C56" authorId="1" shapeId="0" xr:uid="{E3E64D4D-C28F-4CBB-9BA2-0E09167956F2}">
+    <comment ref="C56" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -272,7 +274,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A65" authorId="1" shapeId="0" xr:uid="{4649956B-35AA-42BC-8439-9A6FB7704FD9}">
+    <comment ref="A65" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -296,7 +298,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A133" authorId="1" shapeId="0" xr:uid="{279ED60C-74BD-4DC3-B903-A46A359E1FA9}">
+    <comment ref="A133" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -326,7 +328,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="216">
   <si>
     <t># Initial population</t>
   </si>
@@ -919,48 +921,6 @@
     <t>rpert(10000, (2.19*12.5*0.9515), (9*12.5*0.9515), (5.4*12.5*0.9515))</t>
   </si>
   <si>
-    <t>0.05/13</t>
-  </si>
-  <si>
-    <t>0.05/14</t>
-  </si>
-  <si>
-    <t>0.05/15</t>
-  </si>
-  <si>
-    <t>0.05/16</t>
-  </si>
-  <si>
-    <t>0.05/17</t>
-  </si>
-  <si>
-    <t>0.05/18</t>
-  </si>
-  <si>
-    <t>0.05/19</t>
-  </si>
-  <si>
-    <t>0.05/20</t>
-  </si>
-  <si>
-    <t>0.05/21</t>
-  </si>
-  <si>
-    <t>0.05/22</t>
-  </si>
-  <si>
-    <t>0.05/23</t>
-  </si>
-  <si>
-    <t>0.05/24</t>
-  </si>
-  <si>
-    <t>0.05/25</t>
-  </si>
-  <si>
-    <t>0.05/26</t>
-  </si>
-  <si>
     <t>rpert(10000, 6000, 12000, 7757)</t>
   </si>
   <si>
@@ -1009,52 +969,10 @@
     <t>0.14/12</t>
   </si>
   <si>
-    <t>0.14/13</t>
-  </si>
-  <si>
-    <t>0.14/14</t>
-  </si>
-  <si>
-    <t>0.14/15</t>
-  </si>
-  <si>
-    <t>0.14/16</t>
-  </si>
-  <si>
-    <t>0.14/17</t>
-  </si>
-  <si>
-    <t>0.14/18</t>
-  </si>
-  <si>
-    <t>0.14/19</t>
-  </si>
-  <si>
-    <t>0.14/20</t>
-  </si>
-  <si>
-    <t>0.14/21</t>
-  </si>
-  <si>
-    <t>0.14/22</t>
-  </si>
-  <si>
-    <t>0.14/23</t>
-  </si>
-  <si>
-    <t>0.14/24</t>
-  </si>
-  <si>
-    <t>0.14/25</t>
-  </si>
-  <si>
-    <t>0.14/26</t>
-  </si>
-  <si>
-    <t>rpert(10000, 0,51,0.51,0.51)</t>
-  </si>
-  <si>
     <t>rpert(10000, 1.64,1.64,1.64)</t>
+  </si>
+  <si>
+    <t>rpert(10000, 0.51,0.51,0.51)</t>
   </si>
   <si>
     <t>rpert(10000, (6350+635), (14500+1450), (9912+991))</t>
@@ -1639,14 +1557,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCDE79AB-593E-49D8-BC0E-644D5608E970}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AV159"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="9" topLeftCell="C60" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="9" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="E71" sqref="E71"/>
+      <selection pane="bottomRight" activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2245,7 +2163,7 @@
         <v>134</v>
       </c>
       <c r="B11" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="C11" s="30">
         <v>0</v>
@@ -2573,49 +2491,49 @@
         <v>80</v>
       </c>
       <c r="C17" s="30" t="s">
-        <v>241</v>
+        <v>214</v>
       </c>
       <c r="D17" s="30" t="s">
-        <v>241</v>
+        <v>214</v>
       </c>
       <c r="E17" s="40">
         <v>0.92</v>
       </c>
       <c r="F17" s="30" t="s">
-        <v>241</v>
+        <v>214</v>
       </c>
       <c r="G17" s="30" t="s">
-        <v>241</v>
+        <v>214</v>
       </c>
       <c r="H17" s="30" t="s">
-        <v>241</v>
+        <v>214</v>
       </c>
       <c r="I17" s="30" t="s">
-        <v>241</v>
+        <v>214</v>
       </c>
       <c r="J17" s="30" t="s">
-        <v>241</v>
+        <v>214</v>
       </c>
       <c r="K17" s="30" t="s">
-        <v>241</v>
+        <v>214</v>
       </c>
       <c r="L17" s="30" t="s">
-        <v>241</v>
+        <v>214</v>
       </c>
       <c r="M17" s="30" t="s">
-        <v>241</v>
+        <v>214</v>
       </c>
       <c r="N17" s="30" t="s">
-        <v>241</v>
+        <v>214</v>
       </c>
       <c r="O17" s="40">
         <v>0.92</v>
       </c>
       <c r="P17" s="30" t="s">
-        <v>241</v>
+        <v>214</v>
       </c>
       <c r="Q17" s="30" t="s">
-        <v>241</v>
+        <v>214</v>
       </c>
       <c r="R17" s="5"/>
       <c r="S17" s="5"/>
@@ -2892,49 +2810,49 @@
         <v>83</v>
       </c>
       <c r="C23" s="30" t="s">
-        <v>242</v>
+        <v>213</v>
       </c>
       <c r="D23" s="30" t="s">
-        <v>242</v>
+        <v>213</v>
       </c>
       <c r="E23" s="40" t="s">
         <v>186</v>
       </c>
       <c r="F23" s="30" t="s">
-        <v>242</v>
+        <v>213</v>
       </c>
       <c r="G23" s="30" t="s">
-        <v>242</v>
+        <v>213</v>
       </c>
       <c r="H23" s="30" t="s">
-        <v>242</v>
+        <v>213</v>
       </c>
       <c r="I23" s="30" t="s">
-        <v>242</v>
+        <v>213</v>
       </c>
       <c r="J23" s="30" t="s">
-        <v>242</v>
+        <v>213</v>
       </c>
       <c r="K23" s="30" t="s">
-        <v>242</v>
+        <v>213</v>
       </c>
       <c r="L23" s="30" t="s">
-        <v>242</v>
+        <v>213</v>
       </c>
       <c r="M23" s="30" t="s">
-        <v>242</v>
+        <v>213</v>
       </c>
       <c r="N23" s="30" t="s">
-        <v>242</v>
+        <v>213</v>
       </c>
       <c r="O23" s="40" t="s">
         <v>186</v>
       </c>
       <c r="P23" s="30" t="s">
-        <v>242</v>
+        <v>213</v>
       </c>
       <c r="Q23" s="30" t="s">
-        <v>242</v>
+        <v>213</v>
       </c>
       <c r="R23" s="5"/>
       <c r="S23" s="5"/>
@@ -3536,46 +3454,46 @@
         <v>183</v>
       </c>
       <c r="D36" s="30" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="E36" s="30" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="F36" s="30" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="G36" s="30" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="H36" s="30" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="I36" s="30" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="J36" s="30" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
       <c r="K36" s="30" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="L36" s="30" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
       <c r="M36" s="30" t="s">
-        <v>206</v>
+        <v>183</v>
       </c>
       <c r="N36" s="30" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
       <c r="O36" s="30" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="P36" s="30" t="s">
-        <v>209</v>
+        <v>183</v>
       </c>
       <c r="Q36" s="30" t="s">
-        <v>210</v>
+        <v>183</v>
       </c>
       <c r="R36" s="5"/>
       <c r="S36" s="5"/>
@@ -3592,49 +3510,49 @@
         <v>13</v>
       </c>
       <c r="C37" s="30" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="D37" s="30" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="E37" s="30" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="F37" s="30" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
       <c r="G37" s="30" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
       <c r="H37" s="30" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="I37" s="30" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="J37" s="30" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
       <c r="K37" s="30" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="L37" s="30" t="s">
-        <v>235</v>
+        <v>212</v>
       </c>
       <c r="M37" s="30" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
       <c r="N37" s="30" t="s">
-        <v>237</v>
+        <v>212</v>
       </c>
       <c r="O37" s="30" t="s">
-        <v>238</v>
+        <v>212</v>
       </c>
       <c r="P37" s="30" t="s">
-        <v>239</v>
+        <v>212</v>
       </c>
       <c r="Q37" s="30" t="s">
-        <v>240</v>
+        <v>212</v>
       </c>
       <c r="R37" s="5"/>
       <c r="S37" s="5"/>
@@ -3654,46 +3572,46 @@
         <v>183</v>
       </c>
       <c r="D38" s="34" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="E38" s="34" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="F38" s="34" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="G38" s="34" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="H38" s="34" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="I38" s="34" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="J38" s="34" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
       <c r="K38" s="34" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="L38" s="34" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
       <c r="M38" s="34" t="s">
-        <v>206</v>
+        <v>183</v>
       </c>
       <c r="N38" s="34" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
       <c r="O38" s="34" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="P38" s="34" t="s">
-        <v>209</v>
+        <v>183</v>
       </c>
       <c r="Q38" s="34" t="s">
-        <v>210</v>
+        <v>183</v>
       </c>
       <c r="R38" s="5"/>
       <c r="S38" s="5"/>
@@ -3710,49 +3628,49 @@
         <v>14</v>
       </c>
       <c r="C39" s="34" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="D39" s="34" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="E39" s="34" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="F39" s="34" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
       <c r="G39" s="34" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
       <c r="H39" s="34" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="I39" s="34" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="J39" s="34" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
       <c r="K39" s="34" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="L39" s="34" t="s">
-        <v>235</v>
+        <v>212</v>
       </c>
       <c r="M39" s="34" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
       <c r="N39" s="34" t="s">
-        <v>237</v>
+        <v>212</v>
       </c>
       <c r="O39" s="34" t="s">
-        <v>238</v>
+        <v>212</v>
       </c>
       <c r="P39" s="34" t="s">
-        <v>239</v>
+        <v>212</v>
       </c>
       <c r="Q39" s="34" t="s">
-        <v>240</v>
+        <v>212</v>
       </c>
       <c r="R39" s="5"/>
       <c r="S39" s="5"/>
@@ -5142,49 +5060,49 @@
         <v>34</v>
       </c>
       <c r="C69" s="30" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="D69" s="30" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="E69" s="40" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="F69" s="30" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="G69" s="30" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="H69" s="30" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="I69" s="30" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="J69" s="30" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="K69" s="40" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="L69" s="30" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="M69" s="30" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="N69" s="30" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="O69" s="30" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="P69" s="30" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="Q69" s="30" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="R69" s="5"/>
       <c r="S69" s="5"/>
@@ -5203,49 +5121,49 @@
         <v>35</v>
       </c>
       <c r="C70" s="30" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="D70" s="30" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="E70" s="40" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="F70" s="30" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="G70" s="30" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="H70" s="30" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="I70" s="30" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="J70" s="30" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="K70" s="30" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="L70" s="30" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="M70" s="40" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="N70" s="30" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="O70" s="30" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="P70" s="30" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="Q70" s="30" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="R70" s="5"/>
       <c r="S70" s="5"/>
@@ -5264,49 +5182,49 @@
         <v>36</v>
       </c>
       <c r="C71" s="30" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="D71" s="30" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="E71" s="40" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="F71" s="30" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="G71" s="30" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="H71" s="30" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="I71" s="30" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="J71" s="30" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="K71" s="30" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="L71" s="30" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="M71" s="30" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="N71" s="30" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="O71" s="40" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="P71" s="30" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="Q71" s="30" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="R71" s="5"/>
       <c r="S71" s="5"/>
@@ -5338,49 +5256,49 @@
         <v>37</v>
       </c>
       <c r="C72" s="30" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="D72" s="30" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="E72" s="40" t="s">
-        <v>243</v>
+        <v>215</v>
       </c>
       <c r="F72" s="30" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="G72" s="30" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="H72" s="30" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="I72" s="30" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="J72" s="30" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="K72" s="30" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="L72" s="40" t="s">
-        <v>243</v>
+        <v>215</v>
       </c>
       <c r="M72" s="30" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="N72" s="30" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="O72" s="30" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="P72" s="30" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="Q72" s="30" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="R72" s="5"/>
       <c r="S72" s="5"/>
@@ -5399,49 +5317,49 @@
         <v>38</v>
       </c>
       <c r="C73" s="30" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="D73" s="30" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="E73" s="40" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="F73" s="30" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="G73" s="30" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="H73" s="30" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="I73" s="30" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="J73" s="30" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="K73" s="30" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="L73" s="30" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="M73" s="30" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="N73" s="40" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="O73" s="30" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="P73" s="30" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="Q73" s="30" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="R73" s="5"/>
       <c r="S73" s="5"/>
@@ -5460,49 +5378,49 @@
         <v>39</v>
       </c>
       <c r="C74" s="30" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="D74" s="30" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="E74" s="40" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="F74" s="30" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="G74" s="30" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="H74" s="30" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="I74" s="30" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="J74" s="30" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="K74" s="30" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="L74" s="30" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="M74" s="30" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="N74" s="30" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="O74" s="30" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="P74" s="40" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="Q74" s="30" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="R74" s="5"/>
       <c r="S74" s="5"/>
@@ -7284,49 +7202,49 @@
         <v>58</v>
       </c>
       <c r="C112" s="30" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="D112" s="30" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="E112" s="30" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="F112" s="30" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="G112" s="30" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="H112" s="30" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="I112" s="30" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="J112" s="30" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="K112" s="30" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="L112" s="30" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="M112" s="30" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="N112" s="30" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="O112" s="30" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="P112" s="30" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="Q112" s="30" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="R112" s="5"/>
       <c r="S112" s="5"/>
@@ -7603,49 +7521,49 @@
         <v>154</v>
       </c>
       <c r="C122" s="30" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="D122" s="30" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="E122" s="30" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="F122" s="30" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="G122" s="30" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="H122" s="30" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="I122" s="30" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="J122" s="30" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="K122" s="30" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="L122" s="30" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="M122" s="30" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="N122" s="30" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="O122" s="30" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="P122" s="30" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="Q122" s="30" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="R122" s="5"/>
       <c r="S122" s="5"/>
@@ -7989,49 +7907,49 @@
         <v>69</v>
       </c>
       <c r="C131" s="30" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="D131" s="30" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="E131" s="30">
         <v>0</v>
       </c>
       <c r="F131" s="30" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="G131" s="30" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="H131" s="30" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="I131" s="30" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="J131" s="30" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="K131" s="30" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="L131" s="30" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="M131" s="30" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="N131" s="30" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="O131" s="30" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="P131" s="30" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="Q131" s="30" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="X131" s="5"/>
       <c r="AJ131"/>
@@ -8042,49 +7960,49 @@
       </c>
       <c r="B132" s="33"/>
       <c r="C132" s="30" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="D132" s="30" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="E132" s="30">
         <v>0</v>
       </c>
       <c r="F132" s="30" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="G132" s="30" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="H132" s="30" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="I132" s="30" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="J132" s="30" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="K132" s="30" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="L132" s="30" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="M132" s="30" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="N132" s="30" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="O132" s="30" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="P132" s="30" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="Q132" s="30" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="R132" s="5"/>
       <c r="S132" s="5"/>
@@ -8709,7 +8627,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3D08064-68C3-4BB0-A64D-3A606C4D4B6B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Ethiopia Workspace/Code and Control Files/Subnational parameters/Gambella 2021_AHLE scenario parameters CATTLE scenarios only.xlsx
+++ b/Ethiopia Workspace/Code and Control Files/Subnational parameters/Gambella 2021_AHLE scenario parameters CATTLE scenarios only.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\First Analytics\Clients\University of Liverpool\GBADs Github\GBADsLiverpool\Ethiopia Workspace\Code and Control Files\Subnational parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0773170D-5D27-4F27-ACDA-45F495202FCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8053345-0B8D-4E74-BE2E-43A6827CCAC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="14292" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
